--- a/tests/test_data/BCB_4.xlsx
+++ b/tests/test_data/BCB_4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="27795" windowHeight="14730" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="S_channel" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="time_reference" sheetId="5" r:id="rId5"/>
     <sheet name="sample_description" sheetId="6" r:id="rId6"/>
     <sheet name="S_353" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -85,10 +86,10 @@
     <t>t0</t>
   </si>
   <si>
+    <t>2018-12-10 18:18:21.180000</t>
+  </si>
+  <si>
     <t>t0_shifted</t>
-  </si>
-  <si>
-    <t>2018-12-10 18:18:21.180000</t>
   </si>
   <si>
     <t>2018-12-12 17:09:00.000000</t>
@@ -296,12 +297,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,19 +316,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -344,9 +688,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -354,11 +940,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -641,19 +1279,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="2:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +1355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -726,7 +1366,7 @@
         <v>58.403282</v>
       </c>
       <c r="D2">
-        <v>4967111.796562335</v>
+        <v>4967111.79656234</v>
       </c>
       <c r="E2">
         <v>14890481.6025897</v>
@@ -741,19 +1381,19 @@
         <v>187.0293297567</v>
       </c>
       <c r="I2">
-        <v>939.0690791550001</v>
+        <v>939.069079155</v>
       </c>
       <c r="K2">
-        <v>-28206.47826573439</v>
+        <v>-28206.4782657344</v>
       </c>
       <c r="L2">
-        <v>-87768.03133697994</v>
+        <v>-87768.0313369799</v>
       </c>
       <c r="M2">
         <v>-159742.686586637</v>
       </c>
       <c r="N2">
-        <v>5.632613788100002</v>
+        <v>5.6326137881</v>
       </c>
       <c r="O2">
         <v>155.716064797</v>
@@ -771,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -779,13 +1419,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>73.39895800000001</v>
+        <v>73.398958</v>
       </c>
       <c r="D3">
-        <v>4967111.866387947</v>
+        <v>4967111.86638795</v>
       </c>
       <c r="E3">
-        <v>14890481.69191012</v>
+        <v>14890481.6919101</v>
       </c>
       <c r="F3">
         <v>24800677.6125076</v>
@@ -797,16 +1437,16 @@
         <v>186.9928216314</v>
       </c>
       <c r="I3">
-        <v>937.4422772735001</v>
+        <v>937.4422772735</v>
       </c>
       <c r="K3">
-        <v>-28206.40844012145</v>
+        <v>-28206.4084401214</v>
       </c>
       <c r="L3">
-        <v>-87767.94201656617</v>
+        <v>-87767.9420165662</v>
       </c>
       <c r="M3">
-        <v>-159744.3467825353</v>
+        <v>-159744.346782535</v>
       </c>
       <c r="N3">
         <v>5.6290274487</v>
@@ -827,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -838,13 +1478,13 @@
         <v>88.40643</v>
       </c>
       <c r="D4">
-        <v>4967111.902016199</v>
+        <v>4967111.9020162</v>
       </c>
       <c r="E4">
-        <v>14890481.88400886</v>
+        <v>14890481.8840089</v>
       </c>
       <c r="F4">
-        <v>24800679.40794402</v>
+        <v>24800679.407944</v>
       </c>
       <c r="G4">
         <v>26.3287380477</v>
@@ -856,13 +1496,13 @@
         <v>939.3768273362</v>
       </c>
       <c r="K4">
-        <v>-28206.37281186972</v>
+        <v>-28206.3728118697</v>
       </c>
       <c r="L4">
-        <v>-87767.74991781823</v>
+        <v>-87767.7499178182</v>
       </c>
       <c r="M4">
-        <v>-159742.5513461158</v>
+        <v>-159742.551346116</v>
       </c>
       <c r="N4">
         <v>5.631105114</v>
@@ -883,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -894,13 +1534,13 @@
         <v>103.404266</v>
       </c>
       <c r="D5">
-        <v>4967111.949172582</v>
+        <v>4967111.94917258</v>
       </c>
       <c r="E5">
         <v>14890482.4209708</v>
       </c>
       <c r="F5">
-        <v>24800680.51856931</v>
+        <v>24800680.5185693</v>
       </c>
       <c r="G5">
         <v>26.3275026246</v>
@@ -912,22 +1552,22 @@
         <v>940.2782888835</v>
       </c>
       <c r="K5">
-        <v>-28206.32565548737</v>
+        <v>-28206.3256554874</v>
       </c>
       <c r="L5">
-        <v>-87767.21295588091</v>
+        <v>-87767.2129558809</v>
       </c>
       <c r="M5">
-        <v>-159741.4407208338</v>
+        <v>-159741.440720834</v>
       </c>
       <c r="N5">
-        <v>5.629869690900001</v>
+        <v>5.6298696909</v>
       </c>
       <c r="O5">
         <v>155.327835246</v>
       </c>
       <c r="P5">
-        <v>889.8734564440999</v>
+        <v>889.8734564441</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -939,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -950,13 +1590,13 @@
         <v>118.410155</v>
       </c>
       <c r="D6">
-        <v>4967112.044723775</v>
+        <v>4967112.04472378</v>
       </c>
       <c r="E6">
-        <v>14890482.64148944</v>
+        <v>14890482.6414894</v>
       </c>
       <c r="F6">
-        <v>24800680.38461085</v>
+        <v>24800680.3846109</v>
       </c>
       <c r="G6">
         <v>26.3401160495</v>
@@ -968,16 +1608,16 @@
         <v>939.0601155877</v>
       </c>
       <c r="K6">
-        <v>-28206.23010429367</v>
+        <v>-28206.2301042937</v>
       </c>
       <c r="L6">
-        <v>-87766.99243723787</v>
+        <v>-87766.9924372379</v>
       </c>
       <c r="M6">
-        <v>-159741.5746792853</v>
+        <v>-159741.574679285</v>
       </c>
       <c r="N6">
-        <v>5.642483115800001</v>
+        <v>5.6424831158</v>
       </c>
       <c r="O6">
         <v>155.4022818334</v>
@@ -995,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1006,13 +1646,13 @@
         <v>133.41251</v>
       </c>
       <c r="D7">
-        <v>4967112.076311814</v>
+        <v>4967112.07631181</v>
       </c>
       <c r="E7">
         <v>14890482.7834039</v>
       </c>
       <c r="F7">
-        <v>24800682.11296753</v>
+        <v>24800682.1129675</v>
       </c>
       <c r="G7">
         <v>26.3288015054</v>
@@ -1024,16 +1664,16 @@
         <v>939.3829625529</v>
       </c>
       <c r="K7">
-        <v>-28206.19851625524</v>
+        <v>-28206.1985162552</v>
       </c>
       <c r="L7">
-        <v>-87766.85052277893</v>
+        <v>-87766.8505227789</v>
       </c>
       <c r="M7">
-        <v>-159739.8463226072</v>
+        <v>-159739.846322607</v>
       </c>
       <c r="N7">
-        <v>5.631168571700002</v>
+        <v>5.6311685717</v>
       </c>
       <c r="O7">
         <v>155.4273074105</v>
@@ -1051,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1062,13 +1702,13 @@
         <v>148.40508</v>
       </c>
       <c r="D8">
-        <v>4967112.151700209</v>
+        <v>4967112.15170021</v>
       </c>
       <c r="E8">
-        <v>14890481.77146228</v>
+        <v>14890481.7714623</v>
       </c>
       <c r="F8">
-        <v>24800680.47462083</v>
+        <v>24800680.4746208</v>
       </c>
       <c r="G8">
         <v>26.3214415568</v>
@@ -1080,13 +1720,13 @@
         <v>936.9756980682</v>
       </c>
       <c r="K8">
-        <v>-28206.12312786002</v>
+        <v>-28206.12312786</v>
       </c>
       <c r="L8">
-        <v>-87767.86246440187</v>
+        <v>-87767.8624644019</v>
       </c>
       <c r="M8">
-        <v>-159741.4846693054</v>
+        <v>-159741.484669305</v>
       </c>
       <c r="N8">
         <v>5.6238086231</v>
@@ -1107,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1118,13 +1758,13 @@
         <v>163.401054</v>
       </c>
       <c r="D9">
-        <v>4967112.205391411</v>
+        <v>4967112.20539141</v>
       </c>
       <c r="E9">
-        <v>14890483.14529461</v>
+        <v>14890483.1452946</v>
       </c>
       <c r="F9">
-        <v>24800680.12766589</v>
+        <v>24800680.1276659</v>
       </c>
       <c r="G9">
         <v>26.3373655648</v>
@@ -1136,16 +1776,16 @@
         <v>938.2423599568</v>
       </c>
       <c r="K9">
-        <v>-28206.06943665817</v>
+        <v>-28206.0694366582</v>
       </c>
       <c r="L9">
-        <v>-87766.48863206804</v>
+        <v>-87766.488632068</v>
       </c>
       <c r="M9">
-        <v>-159741.8316242509</v>
+        <v>-159741.831624251</v>
       </c>
       <c r="N9">
-        <v>5.639732631099999</v>
+        <v>5.6397326311</v>
       </c>
       <c r="O9">
         <v>155.4474769504</v>
@@ -1163,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1174,13 +1814,13 @@
         <v>178.399329</v>
       </c>
       <c r="D10">
-        <v>4967112.246180132</v>
+        <v>4967112.24618013</v>
       </c>
       <c r="E10">
-        <v>14890483.20472856</v>
+        <v>14890483.2047286</v>
       </c>
       <c r="F10">
-        <v>24800680.80531584</v>
+        <v>24800680.8053158</v>
       </c>
       <c r="G10">
         <v>26.336619426</v>
@@ -1192,16 +1832,16 @@
         <v>938.9953203317</v>
       </c>
       <c r="K10">
-        <v>-28206.02864793688</v>
+        <v>-28206.0286479369</v>
       </c>
       <c r="L10">
-        <v>-87766.42919811793</v>
+        <v>-87766.4291981179</v>
       </c>
       <c r="M10">
-        <v>-159741.1539743021</v>
+        <v>-159741.153974302</v>
       </c>
       <c r="N10">
-        <v>5.638986492299999</v>
+        <v>5.6389864923</v>
       </c>
       <c r="O10">
         <v>155.3744988357</v>
@@ -1219,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,13 +1870,13 @@
         <v>193.405337</v>
       </c>
       <c r="D11">
-        <v>4967112.278912036</v>
+        <v>4967112.27891204</v>
       </c>
       <c r="E11">
-        <v>14890483.28396648</v>
+        <v>14890483.2839665</v>
       </c>
       <c r="F11">
-        <v>24800681.51169328</v>
+        <v>24800681.5116933</v>
       </c>
       <c r="G11">
         <v>26.3201164334</v>
@@ -1248,16 +1888,16 @@
         <v>938.8946726142</v>
       </c>
       <c r="K11">
-        <v>-28205.99591603316</v>
+        <v>-28205.9959160332</v>
       </c>
       <c r="L11">
-        <v>-87766.34996020608</v>
+        <v>-87766.3499602061</v>
       </c>
       <c r="M11">
-        <v>-159740.4475968592</v>
+        <v>-159740.447596859</v>
       </c>
       <c r="N11">
-        <v>5.622483499699999</v>
+        <v>5.6224834997</v>
       </c>
       <c r="O11">
         <v>155.3270852733</v>
@@ -1275,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1286,13 +1926,13 @@
         <v>208.402955</v>
       </c>
       <c r="D12">
-        <v>4967112.312230423</v>
+        <v>4967112.31223042</v>
       </c>
       <c r="E12">
-        <v>14890483.41730644</v>
+        <v>14890483.4173064</v>
       </c>
       <c r="F12">
-        <v>24800680.93503615</v>
+        <v>24800680.9350361</v>
       </c>
       <c r="G12">
         <v>26.3294662322</v>
@@ -1304,16 +1944,16 @@
         <v>939.1885710573</v>
       </c>
       <c r="K12">
-        <v>-28205.96259764582</v>
+        <v>-28205.9625976458</v>
       </c>
       <c r="L12">
-        <v>-87766.21662024222</v>
+        <v>-87766.2166202422</v>
       </c>
       <c r="M12">
-        <v>-159741.0242539905</v>
+        <v>-159741.024253991</v>
       </c>
       <c r="N12">
-        <v>5.631833298500002</v>
+        <v>5.6318332985</v>
       </c>
       <c r="O12">
         <v>155.3218586952</v>
@@ -1331,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1342,13 +1982,13 @@
         <v>223.40889</v>
       </c>
       <c r="D13">
-        <v>4967112.343484633</v>
+        <v>4967112.34348463</v>
       </c>
       <c r="E13">
         <v>14890483.4711439</v>
       </c>
       <c r="F13">
-        <v>24800681.87970455</v>
+        <v>24800681.8797045</v>
       </c>
       <c r="G13">
         <v>26.3221460731</v>
@@ -1360,16 +2000,16 @@
         <v>938.996581408</v>
       </c>
       <c r="K13">
-        <v>-28205.93134343624</v>
+        <v>-28205.9313434362</v>
       </c>
       <c r="L13">
-        <v>-87766.16278277896</v>
+        <v>-87766.162782779</v>
       </c>
       <c r="M13">
-        <v>-159740.0795855895</v>
+        <v>-159740.079585589</v>
       </c>
       <c r="N13">
-        <v>5.624513139400001</v>
+        <v>5.6245131394</v>
       </c>
       <c r="O13">
         <v>155.3524403947</v>
@@ -1387,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1398,13 +2038,13 @@
         <v>238.406785</v>
       </c>
       <c r="D14">
-        <v>4967112.391902591</v>
+        <v>4967112.39190259</v>
       </c>
       <c r="E14">
-        <v>14890483.73732025</v>
+        <v>14890483.7373202</v>
       </c>
       <c r="F14">
-        <v>24800681.01372533</v>
+        <v>24800681.0137253</v>
       </c>
       <c r="G14">
         <v>26.3263250834</v>
@@ -1416,22 +2056,22 @@
         <v>938.5218896498</v>
       </c>
       <c r="K14">
-        <v>-28205.88292547781</v>
+        <v>-28205.8829254778</v>
       </c>
       <c r="L14">
-        <v>-87765.89660642855</v>
+        <v>-87765.8966064285</v>
       </c>
       <c r="M14">
-        <v>-159740.9455648102</v>
+        <v>-159740.94556481</v>
       </c>
       <c r="N14">
-        <v>5.628692149700001</v>
+        <v>5.6286921497</v>
       </c>
       <c r="O14">
         <v>155.3738051161</v>
       </c>
       <c r="P14">
-        <v>888.1170572103999</v>
+        <v>888.1170572104</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1445,18 +2085,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +2144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1511,13 +2155,13 @@
         <v>-168637.375724</v>
       </c>
       <c r="D2">
-        <v>4995318.274828069</v>
+        <v>4995318.27482807</v>
       </c>
       <c r="E2">
-        <v>14978249.63392668</v>
+        <v>14978249.6339267</v>
       </c>
       <c r="F2">
-        <v>24960421.95929014</v>
+        <v>24960421.9592901</v>
       </c>
       <c r="G2">
         <v>20.6976329337</v>
@@ -1540,18 +2184,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="2:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +2261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1624,13 +2272,13 @@
         <v>-168637.375724</v>
       </c>
       <c r="D2">
-        <v>4995318.274828069</v>
+        <v>4995318.27482807</v>
       </c>
       <c r="E2">
-        <v>14978249.63392668</v>
+        <v>14978249.6339267</v>
       </c>
       <c r="F2">
-        <v>24960421.95929014</v>
+        <v>24960421.9592901</v>
       </c>
       <c r="G2">
         <v>20.6976329337</v>
@@ -1669,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1680,13 +2328,13 @@
         <v>-168622.378568</v>
       </c>
       <c r="D3">
-        <v>4995318.274270302</v>
+        <v>4995318.2742703</v>
       </c>
       <c r="E3">
-        <v>14978249.65833369</v>
+        <v>14978249.6583337</v>
       </c>
       <c r="F3">
-        <v>24960421.96153881</v>
+        <v>24960421.9615388</v>
       </c>
       <c r="G3">
         <v>20.7016106957</v>
@@ -1698,19 +2346,19 @@
         <v>50.4131673363</v>
       </c>
       <c r="K3">
-        <v>-0.0005577672272920609</v>
+        <v>-0.000557767227292061</v>
       </c>
       <c r="L3">
-        <v>0.02440701238811016</v>
+        <v>0.0244070123881102</v>
       </c>
       <c r="M3">
-        <v>0.002248670905828476</v>
+        <v>0.00224867090582848</v>
       </c>
       <c r="N3">
-        <v>0.003977762000001661</v>
+        <v>0.00397776200000166</v>
       </c>
       <c r="O3">
-        <v>-0.01322743589999931</v>
+        <v>-0.0132274358999993</v>
       </c>
       <c r="P3">
         <v>0.00833489689999567</v>
@@ -1725,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1736,13 +2384,13 @@
         <v>-168607.378427</v>
       </c>
       <c r="D4">
-        <v>4995318.254662108</v>
+        <v>4995318.25466211</v>
       </c>
       <c r="E4">
-        <v>14978249.63606707</v>
+        <v>14978249.6360671</v>
       </c>
       <c r="F4">
-        <v>24960421.90181756</v>
+        <v>24960421.9018176</v>
       </c>
       <c r="G4">
         <v>20.7071085876</v>
@@ -1754,19 +2402,19 @@
         <v>50.3808075916</v>
       </c>
       <c r="K4">
-        <v>-0.02016596123576164</v>
+        <v>-0.0201659612357616</v>
       </c>
       <c r="L4">
-        <v>0.002140391618013382</v>
+        <v>0.00214039161801338</v>
       </c>
       <c r="M4">
         <v>-0.0574725829064846</v>
       </c>
       <c r="N4">
-        <v>0.009475653900000935</v>
+        <v>0.00947565390000094</v>
       </c>
       <c r="O4">
-        <v>-0.03087488909999792</v>
+        <v>-0.0308748890999979</v>
       </c>
       <c r="P4">
         <v>-0.0240248477999998</v>
@@ -1781,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1792,10 +2440,10 @@
         <v>-168592.377128</v>
       </c>
       <c r="D5">
-        <v>4995318.284614657</v>
+        <v>4995318.28461466</v>
       </c>
       <c r="E5">
-        <v>14978249.64574912</v>
+        <v>14978249.6457491</v>
       </c>
       <c r="F5">
         <v>24960421.7337338</v>
@@ -1813,19 +2461,19 @@
         <v>0.00978658813983202</v>
       </c>
       <c r="L5">
-        <v>0.01182244159281254</v>
+        <v>0.0118224415928125</v>
       </c>
       <c r="M5">
-        <v>-0.2255563400685787</v>
+        <v>-0.225556340068579</v>
       </c>
       <c r="N5">
-        <v>0.0002322212999992246</v>
+        <v>0.000232221299999225</v>
       </c>
       <c r="O5">
-        <v>-0.02290910589999839</v>
+        <v>-0.0229091058999984</v>
       </c>
       <c r="P5">
-        <v>-0.09900354130000011</v>
+        <v>-0.0990035413000001</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1837,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1848,13 +2496,13 @@
         <v>-168577.379734</v>
       </c>
       <c r="D6">
-        <v>4995318.267052624</v>
+        <v>4995318.26705262</v>
       </c>
       <c r="E6">
-        <v>14978249.63807657</v>
+        <v>14978249.6380766</v>
       </c>
       <c r="F6">
-        <v>24960421.94509519</v>
+        <v>24960421.9450952</v>
       </c>
       <c r="G6">
         <v>20.6921882035</v>
@@ -1866,22 +2514,22 @@
         <v>50.4053023739</v>
       </c>
       <c r="K6">
-        <v>-0.007775444537401199</v>
+        <v>-0.0077754445374012</v>
       </c>
       <c r="L6">
-        <v>0.004149889573454857</v>
+        <v>0.00414988957345486</v>
       </c>
       <c r="M6">
-        <v>-0.01419494673609734</v>
+        <v>-0.0141949467360973</v>
       </c>
       <c r="N6">
-        <v>-0.005444730200000691</v>
+        <v>-0.00544473020000069</v>
       </c>
       <c r="O6">
-        <v>-0.02098192669999932</v>
+        <v>-0.0209819266999993</v>
       </c>
       <c r="P6">
-        <v>0.0004699344999963273</v>
+        <v>0.000469934499996327</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1893,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1904,13 +2552,13 @@
         <v>-168562.379017</v>
       </c>
       <c r="D7">
-        <v>4995318.287160666</v>
+        <v>4995318.28716067</v>
       </c>
       <c r="E7">
         <v>14978249.642108</v>
       </c>
       <c r="F7">
-        <v>24960421.73743555</v>
+        <v>24960421.7374355</v>
       </c>
       <c r="G7">
         <v>20.6977199324</v>
@@ -1922,22 +2570,22 @@
         <v>50.3103781706</v>
       </c>
       <c r="K7">
-        <v>0.01233259681612253</v>
+        <v>0.0123325968161225</v>
       </c>
       <c r="L7">
-        <v>0.008181320503354073</v>
+        <v>0.00818132050335407</v>
       </c>
       <c r="M7">
-        <v>-0.2218545936048031</v>
+        <v>-0.221854593604803</v>
       </c>
       <c r="N7">
-        <v>8.699869999873044e-05</v>
+        <v>8.69986999987304e-5</v>
       </c>
       <c r="O7">
-        <v>-0.01039001039999832</v>
+        <v>-0.0103900103999983</v>
       </c>
       <c r="P7">
-        <v>-0.09445426879999985</v>
+        <v>-0.0944542687999999</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1949,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1960,13 +2608,13 @@
         <v>-168547.379597</v>
       </c>
       <c r="D8">
-        <v>4995318.313663812</v>
+        <v>4995318.31366381</v>
       </c>
       <c r="E8">
-        <v>14978249.66352477</v>
+        <v>14978249.6635248</v>
       </c>
       <c r="F8">
-        <v>24960421.88669025</v>
+        <v>24960421.8866903</v>
       </c>
       <c r="G8">
         <v>20.6763423967</v>
@@ -1978,22 +2626,22 @@
         <v>50.4077356731</v>
       </c>
       <c r="K8">
-        <v>0.03883574344217777</v>
+        <v>0.0388357434421778</v>
       </c>
       <c r="L8">
-        <v>0.02959808707237244</v>
+        <v>0.0295980870723724</v>
       </c>
       <c r="M8">
-        <v>-0.07259989157319069</v>
+        <v>-0.0725998915731907</v>
       </c>
       <c r="N8">
-        <v>-0.02129053699999872</v>
+        <v>-0.0212905369999987</v>
       </c>
       <c r="O8">
-        <v>0.001703986700000826</v>
+        <v>0.00170398670000083</v>
       </c>
       <c r="P8">
-        <v>0.002903233699996122</v>
+        <v>0.00290323369999612</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2005,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2016,13 +2664,13 @@
         <v>-168532.381037</v>
       </c>
       <c r="D9">
-        <v>4995318.291684371</v>
+        <v>4995318.29168437</v>
       </c>
       <c r="E9">
-        <v>14978249.63883839</v>
+        <v>14978249.6388384</v>
       </c>
       <c r="F9">
-        <v>24960421.99362718</v>
+        <v>24960421.9936272</v>
       </c>
       <c r="G9">
         <v>20.6871403316</v>
@@ -2037,19 +2685,19 @@
         <v>0.0168563025072217</v>
       </c>
       <c r="L9">
-        <v>0.004911711439490318</v>
+        <v>0.00491171143949032</v>
       </c>
       <c r="M9">
-        <v>0.03433704376220703</v>
+        <v>0.034337043762207</v>
       </c>
       <c r="N9">
-        <v>-0.01049260210000114</v>
+        <v>-0.0104926021000011</v>
       </c>
       <c r="O9">
-        <v>-0.01441222449999913</v>
+        <v>-0.0144122244999991</v>
       </c>
       <c r="P9">
-        <v>0.02258255659999975</v>
+        <v>0.0225825565999998</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2063,18 +2711,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2129,13 +2781,13 @@
         <v>-168637.375724</v>
       </c>
       <c r="D2">
-        <v>4995318.274828069</v>
+        <v>4995318.27482807</v>
       </c>
       <c r="E2">
-        <v>14978249.63392668</v>
+        <v>14978249.6339267</v>
       </c>
       <c r="F2">
-        <v>24960421.95929014</v>
+        <v>24960421.9592901</v>
       </c>
       <c r="G2">
         <v>20.6976329337</v>
@@ -2158,28 +2810,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -2187,16 +2843,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2215,18 +2875,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="2:65">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2431,7 +3095,7 @@
         <v>0.0049732118</v>
       </c>
       <c r="D2">
-        <v>4.7417e-06</v>
+        <v>4.7417e-6</v>
       </c>
       <c r="E2">
         <v>0.0364057449</v>
@@ -2440,10 +3104,10 @@
         <v>0.003376181</v>
       </c>
       <c r="G2">
-        <v>0.9157230002000001</v>
+        <v>0.9157230002</v>
       </c>
       <c r="H2">
-        <v>0.9157230002000001</v>
+        <v>0.9157230002</v>
       </c>
       <c r="I2">
         <v>-28206.4782657344</v>
@@ -2482,22 +3146,22 @@
         <v>873.7948949617</v>
       </c>
       <c r="U2">
-        <v>2.2552e-06</v>
+        <v>2.2552e-6</v>
       </c>
       <c r="V2">
-        <v>2.07816e-05</v>
+        <v>2.07816e-5</v>
       </c>
       <c r="W2">
-        <v>7.11598e-05</v>
+        <v>7.11598e-5</v>
       </c>
       <c r="X2">
-        <v>2.1932e-06</v>
+        <v>2.1932e-6</v>
       </c>
       <c r="Y2">
-        <v>2.07816e-05</v>
+        <v>2.07816e-5</v>
       </c>
       <c r="Z2">
-        <v>6.99691e-05</v>
+        <v>6.99691e-5</v>
       </c>
       <c r="AA2">
         <v>-1.0046339496</v>
@@ -2539,16 +3203,16 @@
         <v>1508709827779.77</v>
       </c>
       <c r="AN2">
-        <v>1570274846654.546</v>
+        <v>1570274846654.55</v>
       </c>
       <c r="AO2">
-        <v>1599750457359.852</v>
+        <v>1599750457359.85</v>
       </c>
       <c r="AP2">
-        <v>14369461527.25266</v>
+        <v>14369461527.2527</v>
       </c>
       <c r="AQ2">
-        <v>14955827542.67628</v>
+        <v>14955827542.6763</v>
       </c>
       <c r="AR2">
         <v>15236563205.8392</v>
@@ -2587,7 +3251,7 @@
         <v>0.0836325565</v>
       </c>
       <c r="BD2">
-        <v>0.05064830400000001</v>
+        <v>0.050648304</v>
       </c>
       <c r="BE2">
         <v>2.1500268584</v>
@@ -2628,7 +3292,7 @@
         <v>0.0049731808</v>
       </c>
       <c r="D3">
-        <v>4.7775e-06</v>
+        <v>4.7775e-6</v>
       </c>
       <c r="E3">
         <v>0.0363931394</v>
@@ -2637,10 +3301,10 @@
         <v>0.0033774716</v>
       </c>
       <c r="G3">
-        <v>0.9157125514000001</v>
+        <v>0.9157125514</v>
       </c>
       <c r="H3">
-        <v>0.9157125514000001</v>
+        <v>0.9157125514</v>
       </c>
       <c r="I3">
         <v>-28206.4084401214</v>
@@ -2649,7 +3313,7 @@
         <v>-87767.9420165662</v>
       </c>
       <c r="K3">
-        <v>-159744.3467825353</v>
+        <v>-159744.346782535</v>
       </c>
       <c r="L3">
         <v>-28078.4848788059</v>
@@ -2658,7 +3322,7 @@
         <v>-87767.9420164122</v>
       </c>
       <c r="N3">
-        <v>-159744.3467827575</v>
+        <v>-159744.346782757</v>
       </c>
       <c r="O3">
         <v>5.6290274487</v>
@@ -2679,22 +3343,22 @@
         <v>873.6164421755</v>
       </c>
       <c r="U3">
-        <v>2.2537e-06</v>
+        <v>2.2537e-6</v>
       </c>
       <c r="V3">
-        <v>2.07767e-05</v>
+        <v>2.07767e-5</v>
       </c>
       <c r="W3">
-        <v>7.102950000000001e-05</v>
+        <v>7.10295e-5</v>
       </c>
       <c r="X3">
-        <v>2.1927e-06</v>
+        <v>2.1927e-6</v>
       </c>
       <c r="Y3">
-        <v>2.07767e-05</v>
+        <v>2.07767e-5</v>
       </c>
       <c r="Z3">
-        <v>6.99548e-05</v>
+        <v>6.99548e-5</v>
       </c>
       <c r="AA3">
         <v>-1.0046377185</v>
@@ -2730,25 +3394,25 @@
         <v>0.0018134592</v>
       </c>
       <c r="AL3">
-        <v>0.006132744000000001</v>
+        <v>0.006132744</v>
       </c>
       <c r="AM3">
-        <v>1508552961920.635</v>
+        <v>1508552961920.64</v>
       </c>
       <c r="AN3">
-        <v>1570089836171.352</v>
+        <v>1570089836171.35</v>
       </c>
       <c r="AO3">
-        <v>1599551674225.634</v>
+        <v>1599551674225.63</v>
       </c>
       <c r="AP3">
-        <v>14453919155.19481</v>
+        <v>14453919155.1948</v>
       </c>
       <c r="AQ3">
-        <v>15043523251.26237</v>
+        <v>15043523251.2624</v>
       </c>
       <c r="AR3">
-        <v>15325806363.72127</v>
+        <v>15325806363.7213</v>
       </c>
       <c r="AS3">
         <v>48063.7364020318</v>
@@ -2775,13 +3439,13 @@
         <v>0.0582348481</v>
       </c>
       <c r="BA3">
-        <v>0.09648542960000001</v>
+        <v>0.0964854296</v>
       </c>
       <c r="BB3">
         <v>0.2459172657</v>
       </c>
       <c r="BC3">
-        <v>0.08362761990000001</v>
+        <v>0.0836276199</v>
       </c>
       <c r="BD3">
         <v>0.0506451514</v>
@@ -2790,7 +3454,7 @@
         <v>2.1506596623</v>
       </c>
       <c r="BF3">
-        <v>0.7313620226000001</v>
+        <v>0.7313620226</v>
       </c>
       <c r="BG3">
         <v>0.4429151561</v>
@@ -2825,7 +3489,7 @@
         <v>0.0049731895</v>
       </c>
       <c r="D4">
-        <v>4.7499e-06</v>
+        <v>4.7499e-6</v>
       </c>
       <c r="E4">
         <v>0.0364110863</v>
@@ -2846,7 +3510,7 @@
         <v>-87767.7499178182</v>
       </c>
       <c r="K4">
-        <v>-159742.5513461158</v>
+        <v>-159742.551346116</v>
       </c>
       <c r="L4">
         <v>-28078.5232698623</v>
@@ -2855,7 +3519,7 @@
         <v>-87767.7499180845</v>
       </c>
       <c r="N4">
-        <v>-159742.5513460734</v>
+        <v>-159742.551346073</v>
       </c>
       <c r="O4">
         <v>5.631105114</v>
@@ -2876,22 +3540,22 @@
         <v>873.9476223722</v>
       </c>
       <c r="U4">
-        <v>2.2546e-06</v>
+        <v>2.2546e-6</v>
       </c>
       <c r="V4">
-        <v>2.07852e-05</v>
+        <v>2.07852e-5</v>
       </c>
       <c r="W4">
-        <v>7.11844e-05</v>
+        <v>7.11844e-5</v>
       </c>
       <c r="X4">
-        <v>2.1936e-06</v>
+        <v>2.1936e-6</v>
       </c>
       <c r="Y4">
-        <v>2.07852e-05</v>
+        <v>2.07852e-5</v>
       </c>
       <c r="Z4">
-        <v>6.99813e-05</v>
+        <v>6.99813e-5</v>
       </c>
       <c r="AA4">
         <v>-1.004634708</v>
@@ -2930,22 +3594,22 @@
         <v>0.0061350477</v>
       </c>
       <c r="AM4">
-        <v>1508648435115.405</v>
+        <v>1508648435115.41</v>
       </c>
       <c r="AN4">
-        <v>1570220163137.185</v>
+        <v>1570220163137.19</v>
       </c>
       <c r="AO4">
-        <v>1599699112254.387</v>
+        <v>1599699112254.39</v>
       </c>
       <c r="AP4">
-        <v>14395647554.93142</v>
+        <v>14395647554.9314</v>
       </c>
       <c r="AQ4">
-        <v>14983170052.10078</v>
+        <v>14983170052.1008</v>
       </c>
       <c r="AR4">
-        <v>15264460611.18888</v>
+        <v>15264460611.1889</v>
       </c>
       <c r="AS4">
         <v>48066.7782564332</v>
@@ -2972,13 +3636,13 @@
         <v>0.058232479</v>
       </c>
       <c r="BA4">
-        <v>0.09648122290000001</v>
+        <v>0.0964812229</v>
       </c>
       <c r="BB4">
         <v>0.2459250875</v>
       </c>
       <c r="BC4">
-        <v>0.08363110430000001</v>
+        <v>0.0836311043</v>
       </c>
       <c r="BD4">
         <v>0.0506474937</v>
@@ -2987,7 +3651,7 @@
         <v>2.1496677473</v>
       </c>
       <c r="BF4">
-        <v>0.7310319148000001</v>
+        <v>0.7310319148</v>
       </c>
       <c r="BG4">
         <v>0.4427172711</v>
@@ -3019,10 +3683,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.004973172200000001</v>
+        <v>0.0049731722</v>
       </c>
       <c r="D5">
-        <v>4.7421e-06</v>
+        <v>4.7421e-6</v>
       </c>
       <c r="E5">
         <v>0.0363164803</v>
@@ -3043,7 +3707,7 @@
         <v>-87767.2129558809</v>
       </c>
       <c r="K5">
-        <v>-159741.4407208338</v>
+        <v>-159741.440720834</v>
       </c>
       <c r="L5">
         <v>-28078.4087054622</v>
@@ -3052,7 +3716,7 @@
         <v>-87767.2129588855</v>
       </c>
       <c r="N5">
-        <v>-159741.4407207071</v>
+        <v>-159741.440720707</v>
       </c>
       <c r="O5">
         <v>5.6298696909</v>
@@ -3073,22 +3737,22 @@
         <v>871.6433663358</v>
       </c>
       <c r="U5">
-        <v>2.2541e-06</v>
+        <v>2.2541e-6</v>
       </c>
       <c r="V5">
-        <v>2.07298e-05</v>
+        <v>2.07298e-5</v>
       </c>
       <c r="W5">
-        <v>7.12566e-05</v>
+        <v>7.12566e-5</v>
       </c>
       <c r="X5">
-        <v>2.1877e-06</v>
+        <v>2.1877e-6</v>
       </c>
       <c r="Y5">
-        <v>2.07298e-05</v>
+        <v>2.07298e-5</v>
       </c>
       <c r="Z5">
-        <v>6.979680000000001e-05</v>
+        <v>6.97968e-5</v>
       </c>
       <c r="AA5">
         <v>-1.0046365085</v>
@@ -3124,25 +3788,25 @@
         <v>0.0018093573</v>
       </c>
       <c r="AL5">
-        <v>0.006118881400000001</v>
+        <v>0.0061188814</v>
       </c>
       <c r="AM5">
-        <v>1508883827973.624</v>
+        <v>1508883827973.62</v>
       </c>
       <c r="AN5">
-        <v>1570301944497.955</v>
+        <v>1570301944497.96</v>
       </c>
       <c r="AO5">
-        <v>1599705117794.759</v>
+        <v>1599705117794.76</v>
       </c>
       <c r="AP5">
-        <v>14373727046.77456</v>
+        <v>14373727046.7746</v>
       </c>
       <c r="AQ5">
-        <v>14958800083.06874</v>
+        <v>14958800083.0687</v>
       </c>
       <c r="AR5">
-        <v>15238896654.74773</v>
+        <v>15238896654.7477</v>
       </c>
       <c r="AS5">
         <v>48074.2780662337</v>
@@ -3160,7 +3824,7 @@
         <v>158.8665523036</v>
       </c>
       <c r="AX5">
-        <v>97.10475274780001</v>
+        <v>97.1047527478</v>
       </c>
       <c r="AY5">
         <v>0.0196583393</v>
@@ -3169,7 +3833,7 @@
         <v>0.0582307804</v>
       </c>
       <c r="BA5">
-        <v>0.09647989280000001</v>
+        <v>0.0964798928</v>
       </c>
       <c r="BB5">
         <v>0.2459440609</v>
@@ -3184,7 +3848,7 @@
         <v>2.1554352479</v>
       </c>
       <c r="BF5">
-        <v>0.7329551627000001</v>
+        <v>0.7329551627</v>
       </c>
       <c r="BG5">
         <v>0.4438712758</v>
@@ -3219,7 +3883,7 @@
         <v>0.0049731497</v>
       </c>
       <c r="D6">
-        <v>4.7232e-06</v>
+        <v>4.7232e-6</v>
       </c>
       <c r="E6">
         <v>0.0363323971</v>
@@ -3240,7 +3904,7 @@
         <v>-87766.9924372379</v>
       </c>
       <c r="K6">
-        <v>-159741.5746792853</v>
+        <v>-159741.574679285</v>
       </c>
       <c r="L6">
         <v>-28078.2899673792</v>
@@ -3249,7 +3913,7 @@
         <v>-87766.9924368208</v>
       </c>
       <c r="N6">
-        <v>-159741.5746792719</v>
+        <v>-159741.574679272</v>
       </c>
       <c r="O6">
         <v>5.6424831158</v>
@@ -3267,25 +3931,25 @@
         <v>155.4022817194</v>
       </c>
       <c r="T6">
-        <v>872.0636345962999</v>
+        <v>872.0636345963</v>
       </c>
       <c r="U6">
-        <v>2.2591e-06</v>
+        <v>2.2591e-6</v>
       </c>
       <c r="V6">
-        <v>2.07397e-05</v>
+        <v>2.07397e-5</v>
       </c>
       <c r="W6">
-        <v>7.115910000000001e-05</v>
+        <v>7.11591e-5</v>
       </c>
       <c r="X6">
-        <v>2.1888e-06</v>
+        <v>2.1888e-6</v>
       </c>
       <c r="Y6">
-        <v>2.07397e-05</v>
+        <v>2.07397e-5</v>
       </c>
       <c r="Z6">
-        <v>6.983050000000001e-05</v>
+        <v>6.98305e-5</v>
       </c>
       <c r="AA6">
         <v>-1.004637656</v>
@@ -3324,22 +3988,22 @@
         <v>0.0061218668</v>
       </c>
       <c r="AM6">
-        <v>1508781519457.242</v>
+        <v>1508781519457.24</v>
       </c>
       <c r="AN6">
-        <v>1570222928962.372</v>
+        <v>1570222928962.37</v>
       </c>
       <c r="AO6">
-        <v>1599637628907.116</v>
+        <v>1599637628907.12</v>
       </c>
       <c r="AP6">
-        <v>14329923089.23521</v>
+        <v>14329923089.2352</v>
       </c>
       <c r="AQ6">
         <v>14913473895.8619</v>
       </c>
       <c r="AR6">
-        <v>15192845284.27388</v>
+        <v>15192845284.2739</v>
       </c>
       <c r="AS6">
         <v>48071.0184328717</v>
@@ -3381,7 +4045,7 @@
         <v>2.1544180347</v>
       </c>
       <c r="BF6">
-        <v>0.7326156650000001</v>
+        <v>0.732615665</v>
       </c>
       <c r="BG6">
         <v>0.4436674826</v>
@@ -3416,7 +4080,7 @@
         <v>0.0049731626</v>
       </c>
       <c r="D7">
-        <v>4.7489e-06</v>
+        <v>4.7489e-6</v>
       </c>
       <c r="E7">
         <v>0.0363416364</v>
@@ -3437,7 +4101,7 @@
         <v>-87766.8505227789</v>
       </c>
       <c r="K7">
-        <v>-159739.8463226072</v>
+        <v>-159739.846322607</v>
       </c>
       <c r="L7">
         <v>-28078.350573859</v>
@@ -3446,7 +4110,7 @@
         <v>-87766.8505228165</v>
       </c>
       <c r="N7">
-        <v>-159739.8463226385</v>
+        <v>-159739.846322639</v>
       </c>
       <c r="O7">
         <v>5.6311685717</v>
@@ -3464,25 +4128,25 @@
         <v>155.4273074159</v>
       </c>
       <c r="T7">
-        <v>872.1830631115999</v>
+        <v>872.1830631116</v>
       </c>
       <c r="U7">
-        <v>2.2546e-06</v>
+        <v>2.2546e-6</v>
       </c>
       <c r="V7">
-        <v>2.07431e-05</v>
+        <v>2.07431e-5</v>
       </c>
       <c r="W7">
-        <v>7.11849e-05</v>
+        <v>7.11849e-5</v>
       </c>
       <c r="X7">
-        <v>2.1892e-06</v>
+        <v>2.1892e-6</v>
       </c>
       <c r="Y7">
-        <v>2.07431e-05</v>
+        <v>2.07431e-5</v>
       </c>
       <c r="Z7">
-        <v>6.984e-05</v>
+        <v>6.984e-5</v>
       </c>
       <c r="AA7">
         <v>-1.0046339265</v>
@@ -3521,22 +4185,22 @@
         <v>0.0061226774</v>
       </c>
       <c r="AM7">
-        <v>1508903248213.587</v>
+        <v>1508903248213.59</v>
       </c>
       <c r="AN7">
-        <v>1570365554543.048</v>
+        <v>1570365554543.05</v>
       </c>
       <c r="AO7">
-        <v>1599790476710.164</v>
+        <v>1599790476710.16</v>
       </c>
       <c r="AP7">
-        <v>14392734042.68899</v>
+        <v>14392734042.689</v>
       </c>
       <c r="AQ7">
-        <v>14978994712.28296</v>
+        <v>14978994712.283</v>
       </c>
       <c r="AR7">
-        <v>15259665510.41367</v>
+        <v>15259665510.4137</v>
       </c>
       <c r="AS7">
         <v>48074.8968110295</v>
@@ -3572,7 +4236,7 @@
         <v>0.0836349232</v>
       </c>
       <c r="BD7">
-        <v>0.05064890800000001</v>
+        <v>0.050648908</v>
       </c>
       <c r="BE7">
         <v>2.1539572547</v>
@@ -3599,7 +4263,7 @@
         <v>0.0017709113</v>
       </c>
       <c r="BM7">
-        <v>0.005460021900000001</v>
+        <v>0.0054600219</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -3610,10 +4274,10 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.004973205200000001</v>
+        <v>0.0049732052</v>
       </c>
       <c r="D8">
-        <v>4.7358e-06</v>
+        <v>4.7358e-6</v>
       </c>
       <c r="E8">
         <v>0.0364923012</v>
@@ -3622,10 +4286,10 @@
         <v>0.0033791463</v>
       </c>
       <c r="G8">
-        <v>0.9157281283000001</v>
+        <v>0.9157281283</v>
       </c>
       <c r="H8">
-        <v>0.9157281283000001</v>
+        <v>0.9157281283</v>
       </c>
       <c r="I8">
         <v>-28206.12312786</v>
@@ -3634,7 +4298,7 @@
         <v>-87767.8624644019</v>
       </c>
       <c r="K8">
-        <v>-159741.4846693054</v>
+        <v>-159741.484669305</v>
       </c>
       <c r="L8">
         <v>-28078.6144589975</v>
@@ -3664,22 +4328,22 @@
         <v>875.8250283544</v>
       </c>
       <c r="U8">
-        <v>2.2516e-06</v>
+        <v>2.2516e-6</v>
       </c>
       <c r="V8">
-        <v>2.08307e-05</v>
+        <v>2.08307e-5</v>
       </c>
       <c r="W8">
-        <v>7.099210000000001e-05</v>
+        <v>7.09921e-5</v>
       </c>
       <c r="X8">
-        <v>2.1984e-06</v>
+        <v>2.1984e-6</v>
       </c>
       <c r="Y8">
-        <v>2.08307e-05</v>
+        <v>2.08307e-5</v>
       </c>
       <c r="Z8">
-        <v>7.01317e-05</v>
+        <v>7.01317e-5</v>
       </c>
       <c r="AA8">
         <v>-1.0046226316</v>
@@ -3715,25 +4379,25 @@
         <v>0.0018181615</v>
       </c>
       <c r="AL8">
-        <v>0.006148205800000001</v>
+        <v>0.0061482058</v>
       </c>
       <c r="AM8">
-        <v>1508576004041.575</v>
+        <v>1508576004041.57</v>
       </c>
       <c r="AN8">
-        <v>1570284876222.318</v>
+        <v>1570284876222.32</v>
       </c>
       <c r="AO8">
-        <v>1599831410471.095</v>
+        <v>1599831410471.09</v>
       </c>
       <c r="AP8">
-        <v>14350823509.76651</v>
+        <v>14350823509.7665</v>
       </c>
       <c r="AQ8">
-        <v>14937849374.74122</v>
+        <v>14937849374.7412</v>
       </c>
       <c r="AR8">
-        <v>15218920462.43816</v>
+        <v>15218920462.4382</v>
       </c>
       <c r="AS8">
         <v>48064.4705429304</v>
@@ -3751,7 +4415,7 @@
         <v>158.6440500453</v>
       </c>
       <c r="AX8">
-        <v>96.97746116899999</v>
+        <v>96.977461169</v>
       </c>
       <c r="AY8">
         <v>0.0196597577</v>
@@ -3796,7 +4460,7 @@
         <v>0.0017783732</v>
       </c>
       <c r="BM8">
-        <v>0.005482765000000001</v>
+        <v>0.005482765</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3810,7 +4474,7 @@
         <v>0.0049731024</v>
       </c>
       <c r="D9">
-        <v>4.7383e-06</v>
+        <v>4.7383e-6</v>
       </c>
       <c r="E9">
         <v>0.0363402304</v>
@@ -3819,19 +4483,19 @@
         <v>0.0033740568</v>
       </c>
       <c r="G9">
-        <v>0.9157118055000001</v>
+        <v>0.9157118055</v>
       </c>
       <c r="H9">
-        <v>0.9157118055000001</v>
+        <v>0.9157118055</v>
       </c>
       <c r="I9">
         <v>-28206.0694366582</v>
       </c>
       <c r="J9">
-        <v>-87766.48863206799</v>
+        <v>-87766.488632068</v>
       </c>
       <c r="K9">
-        <v>-159741.8316242509</v>
+        <v>-159741.831624251</v>
       </c>
       <c r="L9">
         <v>-28078.0366091707</v>
@@ -3840,7 +4504,7 @@
         <v>-87766.4886320323</v>
       </c>
       <c r="N9">
-        <v>-159741.8316242629</v>
+        <v>-159741.831624263</v>
       </c>
       <c r="O9">
         <v>5.6397326311</v>
@@ -3861,22 +4525,22 @@
         <v>872.3299891777</v>
       </c>
       <c r="U9">
-        <v>2.258e-06</v>
+        <v>2.258e-6</v>
       </c>
       <c r="V9">
-        <v>2.07458e-05</v>
+        <v>2.07458e-5</v>
       </c>
       <c r="W9">
-        <v>7.109360000000001e-05</v>
+        <v>7.10936e-5</v>
       </c>
       <c r="X9">
-        <v>2.1894e-06</v>
+        <v>2.1894e-6</v>
       </c>
       <c r="Y9">
-        <v>2.07458e-05</v>
+        <v>2.07458e-5</v>
       </c>
       <c r="Z9">
-        <v>6.985180000000001e-05</v>
+        <v>6.98518e-5</v>
       </c>
       <c r="AA9">
         <v>-1.0046414883</v>
@@ -3903,7 +4567,7 @@
         <v>0.0018455719</v>
       </c>
       <c r="AI9">
-        <v>0.006324585000000001</v>
+        <v>0.006324585</v>
       </c>
       <c r="AJ9">
         <v>0.00018713</v>
@@ -3918,19 +4582,19 @@
         <v>1508625121474.01</v>
       </c>
       <c r="AN9">
-        <v>1570073673719.308</v>
+        <v>1570073673719.31</v>
       </c>
       <c r="AO9">
-        <v>1599491977988.635</v>
+        <v>1599491977988.64</v>
       </c>
       <c r="AP9">
-        <v>14357744380.13162</v>
+        <v>14357744380.1316</v>
       </c>
       <c r="AQ9">
-        <v>14942556732.19237</v>
+        <v>14942556732.1924</v>
       </c>
       <c r="AR9">
-        <v>15222533836.36736</v>
+        <v>15222533836.3674</v>
       </c>
       <c r="AS9">
         <v>48066.0354646699</v>
@@ -3963,7 +4627,7 @@
         <v>0.2459230288</v>
       </c>
       <c r="BC9">
-        <v>0.08362714930000001</v>
+        <v>0.0836271493</v>
       </c>
       <c r="BD9">
         <v>0.0506441819</v>
@@ -4007,7 +4671,7 @@
         <v>0.0049731094</v>
       </c>
       <c r="D10">
-        <v>4.7338e-06</v>
+        <v>4.7338e-6</v>
       </c>
       <c r="E10">
         <v>0.0363248507</v>
@@ -4028,7 +4692,7 @@
         <v>-87766.4291981179</v>
       </c>
       <c r="K10">
-        <v>-159741.1539743021</v>
+        <v>-159741.153974302</v>
       </c>
       <c r="L10">
         <v>-28078.0681075577</v>
@@ -4037,7 +4701,7 @@
         <v>-87766.4291980889</v>
       </c>
       <c r="N10">
-        <v>-159741.1539742885</v>
+        <v>-159741.153974288</v>
       </c>
       <c r="O10">
         <v>5.6389864923</v>
@@ -4058,22 +4722,22 @@
         <v>871.917396996</v>
       </c>
       <c r="U10">
-        <v>2.2577e-06</v>
+        <v>2.2577e-6</v>
       </c>
       <c r="V10">
-        <v>2.0736e-05</v>
+        <v>2.0736e-5</v>
       </c>
       <c r="W10">
-        <v>7.11539e-05</v>
+        <v>7.11539e-5</v>
       </c>
       <c r="X10">
-        <v>2.1884e-06</v>
+        <v>2.1884e-6</v>
       </c>
       <c r="Y10">
-        <v>2.0736e-05</v>
+        <v>2.0736e-5</v>
       </c>
       <c r="Z10">
-        <v>6.98188e-05</v>
+        <v>6.98188e-5</v>
       </c>
       <c r="AA10">
         <v>-1.0046386175</v>
@@ -4112,22 +4776,22 @@
         <v>0.0061208957</v>
       </c>
       <c r="AM10">
-        <v>1508720162163.731</v>
+        <v>1508720162163.73</v>
       </c>
       <c r="AN10">
-        <v>1570146055510.249</v>
+        <v>1570146055510.25</v>
       </c>
       <c r="AO10">
-        <v>1599553149241.281</v>
+        <v>1599553149241.28</v>
       </c>
       <c r="AP10">
-        <v>14343815873.56868</v>
+        <v>14343815873.5687</v>
       </c>
       <c r="AQ10">
-        <v>14927808668.34137</v>
+        <v>14927808668.3414</v>
       </c>
       <c r="AR10">
-        <v>15207389964.08661</v>
+        <v>15207389964.0866</v>
       </c>
       <c r="AS10">
         <v>48069.0635391052</v>
@@ -4154,13 +4818,13 @@
         <v>0.058232994</v>
       </c>
       <c r="BA10">
-        <v>0.09648342900000001</v>
+        <v>0.096483429</v>
       </c>
       <c r="BB10">
         <v>0.2459307407</v>
       </c>
       <c r="BC10">
-        <v>0.08362906520000001</v>
+        <v>0.0836290652</v>
       </c>
       <c r="BD10">
         <v>0.0506451433</v>
@@ -4169,7 +4833,7 @@
         <v>2.1548217471</v>
       </c>
       <c r="BF10">
-        <v>0.7327499110000001</v>
+        <v>0.732749911</v>
       </c>
       <c r="BG10">
         <v>0.4437479258</v>
@@ -4204,7 +4868,7 @@
         <v>0.0049731145</v>
       </c>
       <c r="D11">
-        <v>4.7488e-06</v>
+        <v>4.7488e-6</v>
       </c>
       <c r="E11">
         <v>0.0363153242</v>
@@ -4222,10 +4886,10 @@
         <v>-28205.9959160332</v>
       </c>
       <c r="J11">
-        <v>-87766.34996020611</v>
+        <v>-87766.3499602061</v>
       </c>
       <c r="K11">
-        <v>-159740.4475968592</v>
+        <v>-159740.447596859</v>
       </c>
       <c r="L11">
         <v>-28078.0898044734</v>
@@ -4234,7 +4898,7 @@
         <v>-87766.3499602395</v>
       </c>
       <c r="N11">
-        <v>-159740.4475968581</v>
+        <v>-159740.447596858</v>
       </c>
       <c r="O11">
         <v>5.6224834997</v>
@@ -4255,22 +4919,22 @@
         <v>871.6467945181</v>
       </c>
       <c r="U11">
-        <v>2.2511e-06</v>
+        <v>2.2511e-6</v>
       </c>
       <c r="V11">
-        <v>2.07297e-05</v>
+        <v>2.07297e-5</v>
       </c>
       <c r="W11">
-        <v>7.11458e-05</v>
+        <v>7.11458e-5</v>
       </c>
       <c r="X11">
-        <v>2.1877e-06</v>
+        <v>2.1877e-6</v>
       </c>
       <c r="Y11">
-        <v>2.07297e-05</v>
+        <v>2.07297e-5</v>
       </c>
       <c r="Z11">
-        <v>6.97971e-05</v>
+        <v>6.97971e-5</v>
       </c>
       <c r="AA11">
         <v>-1.004636426</v>
@@ -4309,22 +4973,22 @@
         <v>0.0061189836</v>
       </c>
       <c r="AM11">
-        <v>1508798966701.818</v>
+        <v>1508798966701.82</v>
       </c>
       <c r="AN11">
         <v>1570211634808.58</v>
       </c>
       <c r="AO11">
-        <v>1599612172488.849</v>
+        <v>1599612172488.85</v>
       </c>
       <c r="AP11">
-        <v>14392286596.99362</v>
+        <v>14392286596.9936</v>
       </c>
       <c r="AQ11">
         <v>14978096065.044</v>
       </c>
       <c r="AR11">
-        <v>15258544934.46835</v>
+        <v>15258544934.4683</v>
       </c>
       <c r="AS11">
         <v>48071.574316414</v>
@@ -4342,22 +5006,22 @@
         <v>159.0714809151</v>
       </c>
       <c r="AX11">
-        <v>97.22995481380001</v>
+        <v>97.2299548138</v>
       </c>
       <c r="AY11">
         <v>0.019658682</v>
       </c>
       <c r="AZ11">
-        <v>0.05823181910000001</v>
+        <v>0.0582318191</v>
       </c>
       <c r="BA11">
-        <v>0.09648163180000001</v>
+        <v>0.0964816318</v>
       </c>
       <c r="BB11">
         <v>0.2459371422</v>
       </c>
       <c r="BC11">
-        <v>0.08363080440000001</v>
+        <v>0.0836308044</v>
       </c>
       <c r="BD11">
         <v>0.0506460733</v>
@@ -4366,7 +5030,7 @@
         <v>2.1554432391</v>
       </c>
       <c r="BF11">
-        <v>0.7329574146000001</v>
+        <v>0.7329574146</v>
       </c>
       <c r="BG11">
         <v>0.4438725085</v>
@@ -4401,7 +5065,7 @@
         <v>0.004973095</v>
       </c>
       <c r="D12">
-        <v>4.7205e-06</v>
+        <v>4.7205e-6</v>
       </c>
       <c r="E12">
         <v>0.0363122667</v>
@@ -4419,19 +5083,19 @@
         <v>-28205.9625976458</v>
       </c>
       <c r="J12">
-        <v>-87766.21662024219</v>
+        <v>-87766.2166202422</v>
       </c>
       <c r="K12">
-        <v>-159741.0242539905</v>
+        <v>-159741.024253991</v>
       </c>
       <c r="L12">
         <v>-28077.9870388428</v>
       </c>
       <c r="M12">
-        <v>-87766.21661979939</v>
+        <v>-87766.2166197994</v>
       </c>
       <c r="N12">
-        <v>-159741.0242540222</v>
+        <v>-159741.024254022</v>
       </c>
       <c r="O12">
         <v>5.6318332985</v>
@@ -4452,22 +5116,22 @@
         <v>871.6286162822</v>
       </c>
       <c r="U12">
-        <v>2.2548e-06</v>
+        <v>2.2548e-6</v>
       </c>
       <c r="V12">
-        <v>2.0729e-05</v>
+        <v>2.0729e-5</v>
       </c>
       <c r="W12">
-        <v>7.11693e-05</v>
+        <v>7.11693e-5</v>
       </c>
       <c r="X12">
-        <v>2.1876e-06</v>
+        <v>2.1876e-6</v>
       </c>
       <c r="Y12">
-        <v>2.0729e-05</v>
+        <v>2.0729e-5</v>
       </c>
       <c r="Z12">
-        <v>6.979560000000001e-05</v>
+        <v>6.97956e-5</v>
       </c>
       <c r="AA12">
         <v>-1.0046391877</v>
@@ -4503,25 +5167,25 @@
         <v>0.0018093197</v>
       </c>
       <c r="AL12">
-        <v>0.006118887500000001</v>
+        <v>0.0061188875</v>
       </c>
       <c r="AM12">
-        <v>1508718716224.974</v>
+        <v>1508718716224.97</v>
       </c>
       <c r="AN12">
-        <v>1570122843771.576</v>
+        <v>1570122843771.58</v>
       </c>
       <c r="AO12">
-        <v>1599519220695.446</v>
+        <v>1599519220695.45</v>
       </c>
       <c r="AP12">
-        <v>14308703177.72885</v>
+        <v>14308703177.7288</v>
       </c>
       <c r="AQ12">
-        <v>14891060528.70687</v>
+        <v>14891060528.7069</v>
       </c>
       <c r="AR12">
-        <v>15169856057.24432</v>
+        <v>15169856057.2443</v>
       </c>
       <c r="AS12">
         <v>48069.0174703088</v>
@@ -4548,7 +5212,7 @@
         <v>0.058233271</v>
       </c>
       <c r="BA12">
-        <v>0.09648408530000001</v>
+        <v>0.0964840853</v>
       </c>
       <c r="BB12">
         <v>0.2459305948</v>
@@ -4584,7 +5248,7 @@
         <v>0.0017697226</v>
       </c>
       <c r="BM12">
-        <v>0.005456510800000001</v>
+        <v>0.0054565108</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -4598,7 +5262,7 @@
         <v>0.0049731035</v>
       </c>
       <c r="D13">
-        <v>4.7378e-06</v>
+        <v>4.7378e-6</v>
       </c>
       <c r="E13">
         <v>0.036321283</v>
@@ -4616,10 +5280,10 @@
         <v>-28205.9313434362</v>
       </c>
       <c r="J13">
-        <v>-87766.16278277901</v>
+        <v>-87766.162782779</v>
       </c>
       <c r="K13">
-        <v>-159740.0795855895</v>
+        <v>-159740.079585589</v>
       </c>
       <c r="L13">
         <v>-28078.0290246101</v>
@@ -4628,7 +5292,7 @@
         <v>-87766.1627829834</v>
       </c>
       <c r="N13">
-        <v>-159740.0795856919</v>
+        <v>-159740.079585692</v>
       </c>
       <c r="O13">
         <v>5.6245131394</v>
@@ -4649,22 +5313,22 @@
         <v>871.787148748</v>
       </c>
       <c r="U13">
-        <v>2.2519e-06</v>
+        <v>2.2519e-6</v>
       </c>
       <c r="V13">
-        <v>2.07331e-05</v>
+        <v>2.07331e-5</v>
       </c>
       <c r="W13">
-        <v>7.1154e-05</v>
+        <v>7.1154e-5</v>
       </c>
       <c r="X13">
-        <v>2.1881e-06</v>
+        <v>2.1881e-6</v>
       </c>
       <c r="Y13">
-        <v>2.07331e-05</v>
+        <v>2.07331e-5</v>
       </c>
       <c r="Z13">
-        <v>6.98083e-05</v>
+        <v>6.98083e-5</v>
       </c>
       <c r="AA13">
         <v>-1.0046363431</v>
@@ -4703,22 +5367,22 @@
         <v>0.0061199834</v>
       </c>
       <c r="AM13">
-        <v>1508780384217.206</v>
+        <v>1508780384217.21</v>
       </c>
       <c r="AN13">
-        <v>1570202575022.733</v>
+        <v>1570202575022.73</v>
       </c>
       <c r="AO13">
-        <v>1599607812074.022</v>
+        <v>1599607812074.02</v>
       </c>
       <c r="AP13">
-        <v>14358326608.73676</v>
+        <v>14358326608.7368</v>
       </c>
       <c r="AQ13">
-        <v>14942851623.66627</v>
+        <v>14942851623.6663</v>
       </c>
       <c r="AR13">
-        <v>15222686914.47885</v>
+        <v>15222686914.4788</v>
       </c>
       <c r="AS13">
         <v>48070.9822631917</v>
@@ -4772,7 +5436,7 @@
         <v>0.0017700721</v>
       </c>
       <c r="BJ13">
-        <v>0.005562735100000001</v>
+        <v>0.0055627351</v>
       </c>
       <c r="BK13">
         <v>0.0001946387</v>
@@ -4792,10 +5456,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0.004973067800000001</v>
+        <v>0.0049730678</v>
       </c>
       <c r="D14">
-        <v>4.7406e-06</v>
+        <v>4.7406e-6</v>
       </c>
       <c r="E14">
         <v>0.0363231384</v>
@@ -4804,19 +5468,19 @@
         <v>0.003369105</v>
       </c>
       <c r="G14">
-        <v>0.9157107079000001</v>
+        <v>0.9157107079</v>
       </c>
       <c r="H14">
-        <v>0.9157107079000001</v>
+        <v>0.9157107079</v>
       </c>
       <c r="I14">
         <v>-28205.8829254778</v>
       </c>
       <c r="J14">
-        <v>-87765.89660642851</v>
+        <v>-87765.8966064285</v>
       </c>
       <c r="K14">
-        <v>-159740.9455648102</v>
+        <v>-159740.94556481</v>
       </c>
       <c r="L14">
         <v>-28077.841368652</v>
@@ -4825,7 +5489,7 @@
         <v>-87765.8966065275</v>
       </c>
       <c r="N14">
-        <v>-159740.9455648211</v>
+        <v>-159740.945564821</v>
       </c>
       <c r="O14">
         <v>5.6286921497</v>
@@ -4846,22 +5510,22 @@
         <v>871.9235847857</v>
       </c>
       <c r="U14">
-        <v>2.2536e-06</v>
+        <v>2.2536e-6</v>
       </c>
       <c r="V14">
-        <v>2.07359e-05</v>
+        <v>2.07359e-5</v>
       </c>
       <c r="W14">
-        <v>7.1116e-05</v>
+        <v>7.1116e-5</v>
       </c>
       <c r="X14">
-        <v>2.1884e-06</v>
+        <v>2.1884e-6</v>
       </c>
       <c r="Y14">
-        <v>2.07359e-05</v>
+        <v>2.07359e-5</v>
       </c>
       <c r="Z14">
-        <v>6.98193e-05</v>
+        <v>6.98193e-5</v>
       </c>
       <c r="AA14">
         <v>-1.004641828</v>
@@ -4900,19 +5564,19 @@
         <v>0.0061209982</v>
       </c>
       <c r="AM14">
-        <v>1508629095513.049</v>
+        <v>1508629095513.05</v>
       </c>
       <c r="AN14">
-        <v>1570048327731.365</v>
+        <v>1570048327731.36</v>
       </c>
       <c r="AO14">
-        <v>1599452192135.938</v>
+        <v>1599452192135.94</v>
       </c>
       <c r="AP14">
-        <v>14363501854.17488</v>
+        <v>14363501854.1749</v>
       </c>
       <c r="AQ14">
-        <v>14948268022.66096</v>
+        <v>14948268022.661</v>
       </c>
       <c r="AR14">
         <v>15228219179.742</v>
@@ -4983,5 +5647,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>